--- a/sorting_performance.xlsx
+++ b/sorting_performance.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAITH\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C94568-34A7-45EB-965C-897AC32C9C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -89,13 +95,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -104,13 +183,5499 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Array</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Size 100</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BubbleSortUntilNoChange</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Average Time (ns)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>380045</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>372985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47854</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>233085</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>380045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C33-48BA-B173-D1E331240958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BubbleSortWhileNeeded</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Average Time (ns)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>380045</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>372985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47854</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>233085</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>372985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2C33-48BA-B173-D1E331240958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QuickSortGPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Average Time (ns)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>380045</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>372985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47854</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>233085</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>47854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2C33-48BA-B173-D1E331240958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SelectionSortGPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Average Time (ns)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>380045</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>372985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47854</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>233085</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>233085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2C33-48BA-B173-D1E331240958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="788558336"/>
+        <c:axId val="788556896"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="788558336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788556896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="788556896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788558336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Array Size 1000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BubbleSortUntilNoChange</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Average Time (ns)</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6137844</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E4F9-4916-AA99-05AE85000FA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BubbleSortWhileNeeded</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Average Time (ns)</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5249364</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E4F9-4916-AA99-05AE85000FA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QuickSortGPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Average Time (ns)</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>576709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E4F9-4916-AA99-05AE85000FA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SelectionSortGPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Average Time (ns)</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5101719</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E4F9-4916-AA99-05AE85000FA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="851605088"/>
+        <c:axId val="851605568"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="851605088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="851605568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="851605568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="851605088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Array</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Size 5000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BubbleSortUntilNoChange</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Average Time (ns)</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>109291110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC4A-46E9-8114-64E5381A23DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BubbleSortWhileNeeded</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Average Time (ns)</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80989655</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EC4A-46E9-8114-64E5381A23DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QuickSortGPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Average Time (ns)</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1038855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EC4A-46E9-8114-64E5381A23DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SelectionSortGPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Average Time (ns)</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>93321195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EC4A-46E9-8114-64E5381A23DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="797391936"/>
+        <c:axId val="797391456"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="797391936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="797391456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="797391456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="797391936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Array</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Size 10000</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BubbleSortUntilNoChange</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Average Time (ns)</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>593044690</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2B5-45E0-B8CB-A4D3C4E65575}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BubbleSortWhileNeeded</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Average Time (ns)</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>422588669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F2B5-45E0-B8CB-A4D3C4E65575}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QuickSortGPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Average Time (ns)</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1926494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F2B5-45E0-B8CB-A4D3C4E65575}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SelectionSortGPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Average Time (ns)</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>375602590</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F2B5-45E0-B8CB-A4D3C4E65575}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="732464591"/>
+        <c:axId val="732489071"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="732464591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="732489071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="732489071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="732464591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Array Size 20000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BubbleSortUntilNoChange</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Average Time (ns)</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2942272490</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC8E-4571-947B-7DF432D778C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BubbleSortWhileNeeded</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Average Time (ns)</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1899081484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC8E-4571-947B-7DF432D778C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QuickSortGPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Average Time (ns)</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4112590</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BC8E-4571-947B-7DF432D778C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SelectionSortGPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Average Time (ns)</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1499131329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BC8E-4571-947B-7DF432D778C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="577958064"/>
+        <c:axId val="577959504"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="577958064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577959504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="577959504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577958064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BFE80FC-4818-E3B0-5150-55C9A692F87D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0837B82F-68B4-7355-CFA9-A544618A121D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2347912</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101D47C1-4870-E5E7-5EC7-5EB493E46495}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1948468D-1609-E48D-F54F-053EEAF637BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2162175</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E65D9DA-B7BC-0E8C-DD6E-B1D9C4C6E88B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,7 +5713,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -182,6 +5747,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,9 +5782,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,245 +5958,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="36.140625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>100</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>380045</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>100</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>372985</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>100</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>47854</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>100</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>233085</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>1000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>6137844</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>5249364</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>1000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>576709</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>1000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>5101719</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>5000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>109291110</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>5000</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>80989655</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>5000</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>1038855</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>5000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>93321195</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>10000</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>593044690</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>10000</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>422588669</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>10000</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>1926494</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>10000</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>375602590</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>20000</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>2942272490</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>20000</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>1899081484</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>20000</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>4112590</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>20000</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>1499131329</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>